--- a/Gedung B/Laporan Harian Kerja Untai.xlsx
+++ b/Gedung B/Laporan Harian Kerja Untai.xlsx
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,20 +132,23 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,164 +451,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>45139</v>
       </c>
@@ -696,199 +703,215 @@
       <c r="AE5" s="2">
         <v>45168</v>
       </c>
-      <c r="AF5" s="1"/>
+      <c r="AF5" s="2">
+        <v>45169</v>
+      </c>
+      <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3">
         <v>11290</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="3">
         <f>27591+3737</f>
         <v>31328</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="3">
         <f>13290+13683</f>
         <v>26973</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="3">
         <v>11276</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="7">
-        <f>SUM(B6:AE6)</f>
-        <v>80867</v>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3">
+        <f>21211 + 15367</f>
+        <v>36578</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="4">
+        <f>SUM(B6:AF6)</f>
+        <v>117445</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3">
         <v>13964</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="3">
         <v>14588</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="3">
         <v>9705</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="3">
         <v>8235</v>
       </c>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="7">
-        <f t="shared" ref="AF7:AF9" si="0">SUM(B7:AE7)</f>
-        <v>46492</v>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3">
+        <v>17210</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4">
+        <f>SUM(B7:AF7)</f>
+        <v>63702</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3">
         <f>11150+5117</f>
         <v>16267</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="3">
         <v>5996</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="7">
-        <f t="shared" si="0"/>
-        <v>23763</v>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3">
+        <v>23733</v>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="4">
+        <f>SUM(B8:AF8)</f>
+        <v>47496</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3">
         <v>29591</v>
       </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
         <v>4335</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="7">
-        <f t="shared" si="0"/>
-        <v>33926</v>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3">
+        <v>11614</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="4">
+        <f>SUM(B9:AF9)</f>
+        <v>45540</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="A1:AF3"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="A1:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
